--- a/Code/Results/Cases/Case_0_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_158/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.088575421934538</v>
+        <v>4.913911592104444</v>
       </c>
       <c r="D2">
-        <v>4.330162304651425</v>
+        <v>7.274415023543201</v>
       </c>
       <c r="E2">
-        <v>7.437995905778308</v>
+        <v>12.32293271044325</v>
       </c>
       <c r="F2">
-        <v>30.20441745072043</v>
+        <v>40.13736744714087</v>
       </c>
       <c r="G2">
-        <v>39.85786157046252</v>
+        <v>47.5000846219713</v>
       </c>
       <c r="H2">
-        <v>12.44819511365476</v>
+        <v>18.82453294665168</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.728049019842604</v>
+        <v>9.970904261452148</v>
       </c>
       <c r="K2">
-        <v>20.83252535005344</v>
+        <v>16.82635729032129</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.93082331533035</v>
+        <v>18.44911726384874</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.587067786847032</v>
+        <v>4.753110097562584</v>
       </c>
       <c r="D3">
-        <v>4.216256247554226</v>
+        <v>7.263039525853822</v>
       </c>
       <c r="E3">
-        <v>7.379051830607071</v>
+        <v>12.34152499231859</v>
       </c>
       <c r="F3">
-        <v>29.51864888661654</v>
+        <v>40.18539705760097</v>
       </c>
       <c r="G3">
-        <v>38.63183496889538</v>
+        <v>47.49204344876372</v>
       </c>
       <c r="H3">
-        <v>12.37400772609127</v>
+        <v>18.88320984039449</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.778688212597759</v>
+        <v>9.998971604615551</v>
       </c>
       <c r="K3">
-        <v>19.4072185282903</v>
+        <v>16.41737856357897</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.08538611094239</v>
+        <v>18.29791157498233</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.26313505286817</v>
+        <v>4.653180780207277</v>
       </c>
       <c r="D4">
-        <v>4.145739924956477</v>
+        <v>7.256505783537638</v>
       </c>
       <c r="E4">
-        <v>7.346466523981155</v>
+        <v>12.35460078734784</v>
       </c>
       <c r="F4">
-        <v>29.12914169878852</v>
+        <v>40.22704213976194</v>
       </c>
       <c r="G4">
-        <v>37.9229403950408</v>
+        <v>47.50522067547555</v>
       </c>
       <c r="H4">
-        <v>12.34227904798126</v>
+        <v>18.9237059985647</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.812242780129034</v>
+        <v>10.0173569626847</v>
       </c>
       <c r="K4">
-        <v>18.48389781938916</v>
+        <v>16.16426269440684</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.55013751642907</v>
+        <v>18.20781111964726</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.127050696322235</v>
+        <v>4.612230616187768</v>
       </c>
       <c r="D5">
-        <v>4.1168834049499</v>
+        <v>7.253957932662381</v>
       </c>
       <c r="E5">
-        <v>7.334077361657691</v>
+        <v>12.36034682723063</v>
       </c>
       <c r="F5">
-        <v>28.97822115804403</v>
+        <v>40.24705550817546</v>
       </c>
       <c r="G5">
-        <v>37.64508460871347</v>
+        <v>47.51512519579281</v>
       </c>
       <c r="H5">
-        <v>12.33265903984041</v>
+        <v>18.9413275917865</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.826520546942405</v>
+        <v>10.02513915199125</v>
       </c>
       <c r="K5">
-        <v>18.09539362762547</v>
+        <v>16.06076647786449</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.32816588207535</v>
+        <v>18.17181615476086</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.104206074594533</v>
+        <v>4.605419315565994</v>
       </c>
       <c r="D6">
-        <v>4.112085290272604</v>
+        <v>7.253541829864293</v>
       </c>
       <c r="E6">
-        <v>7.332073367245158</v>
+        <v>12.36132617413957</v>
       </c>
       <c r="F6">
-        <v>28.95362820774167</v>
+        <v>40.25056204822919</v>
       </c>
       <c r="G6">
-        <v>37.5996116919161</v>
+        <v>47.51704303598317</v>
       </c>
       <c r="H6">
-        <v>12.33125666918512</v>
+        <v>18.94432109916081</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.828927425255056</v>
+        <v>10.02644890475978</v>
       </c>
       <c r="K6">
-        <v>18.03013967999569</v>
+        <v>16.04356452034102</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.2910819073223</v>
+        <v>18.1658837351116</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.26131635837474</v>
+        <v>4.652629335955188</v>
       </c>
       <c r="D7">
-        <v>4.145351209494274</v>
+        <v>7.256470956158507</v>
       </c>
       <c r="E7">
-        <v>7.346295860527851</v>
+        <v>12.35467658969623</v>
       </c>
       <c r="F7">
-        <v>29.12707490904243</v>
+        <v>40.22729974697474</v>
       </c>
       <c r="G7">
-        <v>37.91914853726237</v>
+        <v>47.50533592092503</v>
       </c>
       <c r="H7">
-        <v>12.3421361284709</v>
+        <v>18.92393912456517</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.812432908377149</v>
+        <v>10.0174607413215</v>
       </c>
       <c r="K7">
-        <v>18.478708055639</v>
+        <v>16.16286811535335</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.54715922349703</v>
+        <v>18.20732271472034</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.918943759410495</v>
+        <v>4.858757636694729</v>
       </c>
       <c r="D8">
-        <v>4.291021359586665</v>
+        <v>7.270399982033424</v>
       </c>
       <c r="E8">
-        <v>7.416913121221161</v>
+        <v>12.3289988610102</v>
       </c>
       <c r="F8">
-        <v>29.96134377402398</v>
+        <v>40.15139757145429</v>
       </c>
       <c r="G8">
-        <v>39.4260190320387</v>
+        <v>47.49354146468583</v>
       </c>
       <c r="H8">
-        <v>12.41964673000206</v>
+        <v>18.8438346661911</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.744988955755236</v>
+        <v>9.980343017401811</v>
       </c>
       <c r="K8">
-        <v>20.35099860457242</v>
+        <v>16.68584704655142</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.64277720175743</v>
+        <v>18.3964326828233</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.084164068061837</v>
+        <v>5.250550230160735</v>
       </c>
       <c r="D9">
-        <v>4.571161817267392</v>
+        <v>7.301233402920174</v>
       </c>
       <c r="E9">
-        <v>7.584784366208098</v>
+        <v>12.29181129367658</v>
       </c>
       <c r="F9">
-        <v>31.85267356993679</v>
+        <v>40.09953678904255</v>
       </c>
       <c r="G9">
-        <v>42.72903941552143</v>
+        <v>47.61484030163036</v>
       </c>
       <c r="H9">
-        <v>12.68870628823691</v>
+        <v>18.72240101938159</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.633019259351919</v>
+        <v>9.916679146049843</v>
       </c>
       <c r="K9">
-        <v>23.64651005641766</v>
+        <v>17.68911965006697</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.7213419639056</v>
+        <v>18.78753556415611</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.868301977144473</v>
+        <v>5.527288275435824</v>
       </c>
       <c r="D10">
-        <v>4.772606183420087</v>
+        <v>7.325952600299093</v>
       </c>
       <c r="E10">
-        <v>7.727133079764205</v>
+        <v>12.27250801919332</v>
       </c>
       <c r="F10">
-        <v>33.4043505327225</v>
+        <v>40.1211879737241</v>
       </c>
       <c r="G10">
-        <v>45.36850973457096</v>
+        <v>47.792644045701</v>
       </c>
       <c r="H10">
-        <v>12.96782664243484</v>
+        <v>18.65517950550141</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.564299132893453</v>
+        <v>9.875445505773232</v>
       </c>
       <c r="K10">
-        <v>25.84774762233974</v>
+        <v>18.40460898814842</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.37304179358347</v>
+        <v>19.08517665165017</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.210339453855992</v>
+        <v>5.650133566704874</v>
       </c>
       <c r="D11">
-        <v>4.863159217417022</v>
+        <v>7.337629083751786</v>
       </c>
       <c r="E11">
-        <v>7.796272554301148</v>
+        <v>12.26546508199425</v>
       </c>
       <c r="F11">
-        <v>34.14697300961221</v>
+        <v>40.14410858882562</v>
       </c>
       <c r="G11">
-        <v>46.61625370198274</v>
+        <v>47.89282241053278</v>
       </c>
       <c r="H11">
-        <v>13.11466232043168</v>
+        <v>18.62942796899696</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.536280627521241</v>
+        <v>9.857885729448894</v>
       </c>
       <c r="K11">
-        <v>26.80361871968978</v>
+        <v>18.72388390553598</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.0906617741194</v>
+        <v>19.22236689040015</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.33783547494926</v>
+        <v>5.696168301545296</v>
       </c>
       <c r="D12">
-        <v>4.897286854803993</v>
+        <v>7.342111155372605</v>
       </c>
       <c r="E12">
-        <v>7.823106884986824</v>
+        <v>12.26304775478049</v>
       </c>
       <c r="F12">
-        <v>34.4336226208888</v>
+        <v>40.15467223570721</v>
       </c>
       <c r="G12">
-        <v>47.09564576208946</v>
+        <v>47.93352640070675</v>
       </c>
       <c r="H12">
-        <v>13.17330302425698</v>
+        <v>18.62037486210142</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.526166271142662</v>
+        <v>9.851408195611</v>
       </c>
       <c r="K12">
-        <v>27.15924410208951</v>
+        <v>18.84377788743193</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.35770622354857</v>
+        <v>19.27453649941006</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.310465625398939</v>
+        <v>5.68627611279602</v>
       </c>
       <c r="D13">
-        <v>4.889944160833821</v>
+        <v>7.341143199125483</v>
       </c>
       <c r="E13">
-        <v>7.817298222422635</v>
+        <v>12.26355726973105</v>
       </c>
       <c r="F13">
-        <v>34.37164301549591</v>
+        <v>40.1523133199143</v>
       </c>
       <c r="G13">
-        <v>46.9920902367462</v>
+        <v>47.92463708123568</v>
       </c>
       <c r="H13">
-        <v>13.16053567843932</v>
+        <v>18.62229348241479</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.528322028707051</v>
+        <v>9.852795603681917</v>
       </c>
       <c r="K13">
-        <v>27.08293253655731</v>
+        <v>18.81800317931677</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.30040003752327</v>
+        <v>19.26329173844005</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.220868729149997</v>
+        <v>5.653930821773899</v>
       </c>
       <c r="D14">
-        <v>4.865970205418324</v>
+        <v>7.33799662456832</v>
       </c>
       <c r="E14">
-        <v>7.798467013669606</v>
+        <v>12.26526120480625</v>
       </c>
       <c r="F14">
-        <v>34.17044594148766</v>
+        <v>40.14493988783757</v>
       </c>
       <c r="G14">
-        <v>46.65555424654964</v>
+        <v>47.89611571700995</v>
       </c>
       <c r="H14">
-        <v>13.11942480040175</v>
+        <v>18.62866914326406</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.535438398895354</v>
+        <v>9.85734937362173</v>
       </c>
       <c r="K14">
-        <v>26.83300214271957</v>
+        <v>18.7337685004498</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.11272502134965</v>
+        <v>19.22665475735206</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.165726789583832</v>
+        <v>5.634054062855348</v>
       </c>
       <c r="D15">
-        <v>4.851264132823152</v>
+        <v>7.336077079253148</v>
       </c>
       <c r="E15">
-        <v>7.787018057042332</v>
+        <v>12.26633742102483</v>
       </c>
       <c r="F15">
-        <v>34.04791972100811</v>
+        <v>40.14066891158032</v>
       </c>
       <c r="G15">
-        <v>46.45032005071972</v>
+        <v>47.87900585138793</v>
       </c>
       <c r="H15">
-        <v>13.09464419644797</v>
+        <v>18.63266549869181</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.53986286108089</v>
+        <v>9.860161078005179</v>
       </c>
       <c r="K15">
-        <v>26.67909279887239</v>
+        <v>18.68203769853159</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.99716091728653</v>
+        <v>19.20424086293281</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.845660773814608</v>
+        <v>5.519194709336174</v>
       </c>
       <c r="D16">
-        <v>4.766665815546842</v>
+        <v>7.325198061561511</v>
       </c>
       <c r="E16">
-        <v>7.722704727735137</v>
+        <v>12.27300324685016</v>
       </c>
       <c r="F16">
-        <v>33.35656998607254</v>
+        <v>40.119953514982</v>
       </c>
       <c r="G16">
-        <v>45.28792289371143</v>
+        <v>47.78648502004256</v>
       </c>
       <c r="H16">
-        <v>12.95864563448655</v>
+        <v>18.65695994126361</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.5661978874435</v>
+        <v>9.876617156532779</v>
       </c>
       <c r="K16">
-        <v>25.78438050034305</v>
+        <v>18.38360861563314</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.32547709347945</v>
+        <v>19.07624366999429</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.645610146850766</v>
+        <v>5.44791789544412</v>
       </c>
       <c r="D17">
-        <v>4.714483383787226</v>
+        <v>7.318633535290505</v>
       </c>
       <c r="E17">
-        <v>7.684388668466544</v>
+        <v>12.27753753555056</v>
       </c>
       <c r="F17">
-        <v>32.941959006922</v>
+        <v>40.11059700359855</v>
       </c>
       <c r="G17">
-        <v>44.58694795917174</v>
+        <v>47.73466568985421</v>
       </c>
       <c r="H17">
-        <v>12.88042955748324</v>
+        <v>18.67310337436665</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.583203881160252</v>
+        <v>9.887018989644391</v>
       </c>
       <c r="K17">
-        <v>25.22398971709119</v>
+        <v>18.19885718595976</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.90488010891341</v>
+        <v>18.99815274637699</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.529160011622288</v>
+        <v>5.406637254967663</v>
       </c>
       <c r="D18">
-        <v>4.684367447954911</v>
+        <v>7.314898516552002</v>
       </c>
       <c r="E18">
-        <v>7.662761515763955</v>
+        <v>12.28030916737591</v>
       </c>
       <c r="F18">
-        <v>32.70693485648591</v>
+        <v>40.10644558843149</v>
       </c>
       <c r="G18">
-        <v>44.18818059286666</v>
+        <v>47.70667735494031</v>
       </c>
       <c r="H18">
-        <v>12.83730026206499</v>
+        <v>18.68284283232789</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.593288533150012</v>
+        <v>9.893114588012804</v>
       </c>
       <c r="K18">
-        <v>24.89737384707172</v>
+        <v>18.09201539018794</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.65977772683344</v>
+        <v>18.95340791530388</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.489491475954164</v>
+        <v>5.392613041322395</v>
       </c>
       <c r="D19">
-        <v>4.674153472061805</v>
+        <v>7.313640946505758</v>
       </c>
       <c r="E19">
-        <v>7.655508920327375</v>
+        <v>12.28127570523068</v>
       </c>
       <c r="F19">
-        <v>32.62794812558163</v>
+        <v>40.10525110968101</v>
       </c>
       <c r="G19">
-        <v>44.05392026303621</v>
+        <v>47.69751311490707</v>
       </c>
       <c r="H19">
-        <v>12.82301118529935</v>
+        <v>18.68621832060062</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.59675426953878</v>
+        <v>9.895197823456394</v>
       </c>
       <c r="K19">
-        <v>24.78604408944854</v>
+        <v>18.05574507463373</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.57623869736394</v>
+        <v>18.93828864102075</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.667048774388325</v>
+        <v>5.455535189454966</v>
       </c>
       <c r="D20">
-        <v>4.720048910507863</v>
+        <v>7.319328137251882</v>
       </c>
       <c r="E20">
-        <v>7.688424763494252</v>
+        <v>12.27703791965266</v>
       </c>
       <c r="F20">
-        <v>32.98573711650609</v>
+        <v>40.11146566049008</v>
       </c>
       <c r="G20">
-        <v>44.66111029726451</v>
+        <v>47.73999394407016</v>
       </c>
       <c r="H20">
-        <v>12.88856214634077</v>
+        <v>18.67133784138975</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.581361977000538</v>
+        <v>9.885900030503175</v>
       </c>
       <c r="K20">
-        <v>25.28408729726992</v>
+        <v>18.21858494828372</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.94998208320505</v>
+        <v>19.00644824274029</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.247239794219324</v>
+        <v>5.663444900638521</v>
       </c>
       <c r="D21">
-        <v>4.873016388896359</v>
+        <v>7.33891922254037</v>
       </c>
       <c r="E21">
-        <v>7.803980292707144</v>
+        <v>12.26475394394398</v>
       </c>
       <c r="F21">
-        <v>34.22939353250503</v>
+        <v>40.14705448404493</v>
       </c>
       <c r="G21">
-        <v>46.75421430813127</v>
+        <v>47.90441806585511</v>
       </c>
       <c r="H21">
-        <v>13.13141616376868</v>
+        <v>18.62677746909484</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.533334444963871</v>
+        <v>9.856007155619126</v>
       </c>
       <c r="K21">
-        <v>26.90658321565094</v>
+        <v>18.75853851855523</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.16797608729143</v>
+        <v>19.23741030419906</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.614662833920884</v>
+        <v>5.79648617315174</v>
       </c>
       <c r="D22">
-        <v>4.972040408033011</v>
+        <v>7.352074648579931</v>
       </c>
       <c r="E22">
-        <v>7.883319184492978</v>
+        <v>12.25818082157768</v>
       </c>
       <c r="F22">
-        <v>35.07397055284954</v>
+        <v>40.18129647553235</v>
       </c>
       <c r="G22">
-        <v>48.16251548590142</v>
+        <v>48.02801004179174</v>
       </c>
       <c r="H22">
-        <v>13.30792693439001</v>
+        <v>18.60172755223188</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.504850970295684</v>
+        <v>9.837472713587669</v>
       </c>
       <c r="K22">
-        <v>27.9301160857372</v>
+        <v>19.1055036612883</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.93667483028756</v>
+        <v>19.38961367209898</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.419609083485582</v>
+        <v>5.725753391857602</v>
       </c>
       <c r="D23">
-        <v>4.919277357690508</v>
+        <v>7.345021730542414</v>
       </c>
       <c r="E23">
-        <v>7.840617297541719</v>
+        <v>12.2615559759813</v>
       </c>
       <c r="F23">
-        <v>34.62023682407367</v>
+        <v>40.16201502493491</v>
       </c>
       <c r="G23">
-        <v>47.40712039583713</v>
+        <v>47.96057392503233</v>
       </c>
       <c r="H23">
-        <v>13.21203055191439</v>
+        <v>18.61472315875545</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.519776639115977</v>
+        <v>9.847273263531887</v>
       </c>
       <c r="K23">
-        <v>27.38713987589093</v>
+        <v>18.92090006124032</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.52885332564973</v>
+        <v>19.30827781777246</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.657360857273149</v>
+        <v>5.452092349981953</v>
       </c>
       <c r="D24">
-        <v>4.717533095247173</v>
+        <v>7.319013986070948</v>
       </c>
       <c r="E24">
-        <v>7.686598796744093</v>
+        <v>12.27726328262959</v>
       </c>
       <c r="F24">
-        <v>32.9659346366992</v>
+        <v>40.11106911666239</v>
       </c>
       <c r="G24">
-        <v>44.62756833001397</v>
+        <v>47.73757942287208</v>
       </c>
       <c r="H24">
-        <v>12.88487969105961</v>
+        <v>18.67213461131392</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.582193745693182</v>
+        <v>9.88640555230938</v>
       </c>
       <c r="K24">
-        <v>25.25693102482697</v>
+        <v>18.20966796703437</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.92960175676727</v>
+        <v>19.00269737650932</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.781873416307819</v>
+        <v>5.146276889245844</v>
       </c>
       <c r="D25">
-        <v>4.496084457072132</v>
+        <v>7.292523475461615</v>
       </c>
       <c r="E25">
-        <v>7.536112803618693</v>
+        <v>12.30046263145614</v>
       </c>
       <c r="F25">
-        <v>31.31301136529302</v>
+        <v>40.10311145436739</v>
       </c>
       <c r="G25">
-        <v>41.79822926276404</v>
+        <v>47.56647854406846</v>
       </c>
       <c r="H25">
-        <v>12.60234504694677</v>
+        <v>18.75140770568251</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.661024959738203</v>
+        <v>9.932927436450914</v>
       </c>
       <c r="K25">
-        <v>22.79432770470557</v>
+        <v>17.42095556278504</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.12689989824652</v>
+        <v>18.67977190516985</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_158/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.913911592104444</v>
+        <v>7.088575421934489</v>
       </c>
       <c r="D2">
-        <v>7.274415023543201</v>
+        <v>4.330162304651426</v>
       </c>
       <c r="E2">
-        <v>12.32293271044325</v>
+        <v>7.437995905778308</v>
       </c>
       <c r="F2">
-        <v>40.13736744714087</v>
+        <v>30.20441745072034</v>
       </c>
       <c r="G2">
-        <v>47.5000846219713</v>
+        <v>39.85786157046237</v>
       </c>
       <c r="H2">
-        <v>18.82453294665168</v>
+        <v>12.44819511365476</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.970904261452148</v>
+        <v>5.728049019842606</v>
       </c>
       <c r="K2">
-        <v>16.82635729032129</v>
+        <v>20.83252535005346</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.44911726384874</v>
+        <v>15.93082331533035</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.753110097562584</v>
+        <v>6.587067786847041</v>
       </c>
       <c r="D3">
-        <v>7.263039525853822</v>
+        <v>4.216256247554237</v>
       </c>
       <c r="E3">
-        <v>12.34152499231859</v>
+        <v>7.37905183060702</v>
       </c>
       <c r="F3">
-        <v>40.18539705760097</v>
+        <v>29.51864888661633</v>
       </c>
       <c r="G3">
-        <v>47.49204344876372</v>
+        <v>38.6318349688951</v>
       </c>
       <c r="H3">
-        <v>18.88320984039449</v>
+        <v>12.37400772609119</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.998971604615551</v>
+        <v>5.778688212597697</v>
       </c>
       <c r="K3">
-        <v>16.41737856357897</v>
+        <v>19.40721852829038</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.29791157498233</v>
+        <v>15.08538611094235</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.653180780207277</v>
+        <v>6.26313505286817</v>
       </c>
       <c r="D4">
-        <v>7.256505783537638</v>
+        <v>4.145739924956616</v>
       </c>
       <c r="E4">
-        <v>12.35460078734784</v>
+        <v>7.346466523981262</v>
       </c>
       <c r="F4">
-        <v>40.22704213976194</v>
+        <v>29.12914169878865</v>
       </c>
       <c r="G4">
-        <v>47.50522067547555</v>
+        <v>37.9229403950409</v>
       </c>
       <c r="H4">
-        <v>18.9237059985647</v>
+        <v>12.34227904798132</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.0173569626847</v>
+        <v>5.812242780129129</v>
       </c>
       <c r="K4">
-        <v>16.16426269440684</v>
+        <v>18.48389781938918</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.20781111964726</v>
+        <v>14.55013751642908</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.612230616187768</v>
+        <v>6.127050696322242</v>
       </c>
       <c r="D5">
-        <v>7.253957932662381</v>
+        <v>4.116883404949732</v>
       </c>
       <c r="E5">
-        <v>12.36034682723063</v>
+        <v>7.334077361657622</v>
       </c>
       <c r="F5">
-        <v>40.24705550817546</v>
+        <v>28.9782211580441</v>
       </c>
       <c r="G5">
-        <v>47.51512519579281</v>
+        <v>37.64508460871365</v>
       </c>
       <c r="H5">
-        <v>18.9413275917865</v>
+        <v>12.33265903984056</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.02513915199125</v>
+        <v>5.826520546942434</v>
       </c>
       <c r="K5">
-        <v>16.06076647786449</v>
+        <v>18.09539362762543</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.17181615476086</v>
+        <v>14.32816588207536</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.605419315565994</v>
+        <v>6.104206074594494</v>
       </c>
       <c r="D6">
-        <v>7.253541829864293</v>
+        <v>4.112085290272562</v>
       </c>
       <c r="E6">
-        <v>12.36132617413957</v>
+        <v>7.332073367245111</v>
       </c>
       <c r="F6">
-        <v>40.25056204822919</v>
+        <v>28.95362820774137</v>
       </c>
       <c r="G6">
-        <v>47.51704303598317</v>
+        <v>37.59961169191583</v>
       </c>
       <c r="H6">
-        <v>18.94432109916081</v>
+        <v>12.33125666918497</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.02644890475978</v>
+        <v>5.82892742525506</v>
       </c>
       <c r="K6">
-        <v>16.04356452034102</v>
+        <v>18.03013967999575</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.1658837351116</v>
+        <v>14.29108190732227</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.652629335955188</v>
+        <v>6.261316358374682</v>
       </c>
       <c r="D7">
-        <v>7.256470956158507</v>
+        <v>4.145351209494167</v>
       </c>
       <c r="E7">
-        <v>12.35467658969623</v>
+        <v>7.346295860527851</v>
       </c>
       <c r="F7">
-        <v>40.22729974697474</v>
+        <v>29.12707490904249</v>
       </c>
       <c r="G7">
-        <v>47.50533592092503</v>
+        <v>37.91914853726243</v>
       </c>
       <c r="H7">
-        <v>18.92393912456517</v>
+        <v>12.34213612847099</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.0174607413215</v>
+        <v>5.812432908377184</v>
       </c>
       <c r="K7">
-        <v>16.16286811535335</v>
+        <v>18.47870805563897</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.20732271472034</v>
+        <v>14.54715922349704</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.858757636694729</v>
+        <v>6.91894375941053</v>
       </c>
       <c r="D8">
-        <v>7.270399982033424</v>
+        <v>4.291021359586559</v>
       </c>
       <c r="E8">
-        <v>12.3289988610102</v>
+        <v>7.41691312122115</v>
       </c>
       <c r="F8">
-        <v>40.15139757145429</v>
+        <v>29.9613437740239</v>
       </c>
       <c r="G8">
-        <v>47.49354146468583</v>
+        <v>39.42601903203863</v>
       </c>
       <c r="H8">
-        <v>18.8438346661911</v>
+        <v>12.4196467300021</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.980343017401811</v>
+        <v>5.744988955755267</v>
       </c>
       <c r="K8">
-        <v>16.68584704655142</v>
+        <v>20.35099860457246</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.3964326828233</v>
+        <v>15.64277720175742</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.250550230160735</v>
+        <v>8.084164068061813</v>
       </c>
       <c r="D9">
-        <v>7.301233402920174</v>
+        <v>4.571161817267273</v>
       </c>
       <c r="E9">
-        <v>12.29181129367658</v>
+        <v>7.584784366208153</v>
       </c>
       <c r="F9">
-        <v>40.09953678904255</v>
+        <v>31.85267356993669</v>
       </c>
       <c r="G9">
-        <v>47.61484030163036</v>
+        <v>42.72903941552131</v>
       </c>
       <c r="H9">
-        <v>18.72240101938159</v>
+        <v>12.68870628823692</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.916679146049843</v>
+        <v>5.633019259352006</v>
       </c>
       <c r="K9">
-        <v>17.68911965006697</v>
+        <v>23.64651005641761</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.78753556415611</v>
+        <v>17.72134196390557</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.527288275435824</v>
+        <v>8.868301977144577</v>
       </c>
       <c r="D10">
-        <v>7.325952600299093</v>
+        <v>4.772606183420211</v>
       </c>
       <c r="E10">
-        <v>12.27250801919332</v>
+        <v>7.72713307976428</v>
       </c>
       <c r="F10">
-        <v>40.1211879737241</v>
+        <v>33.40435053272247</v>
       </c>
       <c r="G10">
-        <v>47.792644045701</v>
+        <v>45.36850973457089</v>
       </c>
       <c r="H10">
-        <v>18.65517950550141</v>
+        <v>12.9678266424348</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.875445505773232</v>
+        <v>5.564299132893509</v>
       </c>
       <c r="K10">
-        <v>18.40460898814842</v>
+        <v>25.84774762233979</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.08517665165017</v>
+        <v>19.37304179358345</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.650133566704874</v>
+        <v>9.210339453856015</v>
       </c>
       <c r="D11">
-        <v>7.337629083751786</v>
+        <v>4.863159217417156</v>
       </c>
       <c r="E11">
-        <v>12.26546508199425</v>
+        <v>7.796272554301241</v>
       </c>
       <c r="F11">
-        <v>40.14410858882562</v>
+        <v>34.14697300961224</v>
       </c>
       <c r="G11">
-        <v>47.89282241053278</v>
+        <v>46.61625370198276</v>
       </c>
       <c r="H11">
-        <v>18.62942796899696</v>
+        <v>13.11466232043168</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.857885729448894</v>
+        <v>5.536280627521242</v>
       </c>
       <c r="K11">
-        <v>18.72388390553598</v>
+        <v>26.80361871968978</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.22236689040015</v>
+        <v>20.09066177411939</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.696168301545296</v>
+        <v>9.337835474949351</v>
       </c>
       <c r="D12">
-        <v>7.342111155372605</v>
+        <v>4.897286854804094</v>
       </c>
       <c r="E12">
-        <v>12.26304775478049</v>
+        <v>7.823106884986866</v>
       </c>
       <c r="F12">
-        <v>40.15467223570721</v>
+        <v>34.43362262088873</v>
       </c>
       <c r="G12">
-        <v>47.93352640070675</v>
+        <v>47.09564576208936</v>
       </c>
       <c r="H12">
-        <v>18.62037486210142</v>
+        <v>13.17330302425693</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.851408195611</v>
+        <v>5.526166271142666</v>
       </c>
       <c r="K12">
-        <v>18.84377788743193</v>
+        <v>27.15924410208956</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.27453649941006</v>
+        <v>20.3577062235486</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.68627611279602</v>
+        <v>9.310465625398736</v>
       </c>
       <c r="D13">
-        <v>7.341143199125483</v>
+        <v>4.889944160833788</v>
       </c>
       <c r="E13">
-        <v>12.26355726973105</v>
+        <v>7.817298222422535</v>
       </c>
       <c r="F13">
-        <v>40.1523133199143</v>
+        <v>34.37164301549605</v>
       </c>
       <c r="G13">
-        <v>47.92463708123568</v>
+        <v>46.99209023674643</v>
       </c>
       <c r="H13">
-        <v>18.62229348241479</v>
+        <v>13.16053567843941</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.852795603681917</v>
+        <v>5.528322028707024</v>
       </c>
       <c r="K13">
-        <v>18.81800317931677</v>
+        <v>27.08293253655723</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.26329173844005</v>
+        <v>20.30040003752323</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.653930821773899</v>
+        <v>9.220868729150055</v>
       </c>
       <c r="D14">
-        <v>7.33799662456832</v>
+        <v>4.865970205418367</v>
       </c>
       <c r="E14">
-        <v>12.26526120480625</v>
+        <v>7.798467013669611</v>
       </c>
       <c r="F14">
-        <v>40.14493988783757</v>
+        <v>34.17044594148761</v>
       </c>
       <c r="G14">
-        <v>47.89611571700995</v>
+        <v>46.65555424654962</v>
       </c>
       <c r="H14">
-        <v>18.62866914326406</v>
+        <v>13.11942480040166</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.85734937362173</v>
+        <v>5.53543839889536</v>
       </c>
       <c r="K14">
-        <v>18.7337685004498</v>
+        <v>26.83300214271966</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.22665475735206</v>
+        <v>20.1127250213497</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.634054062855348</v>
+        <v>9.165726789583751</v>
       </c>
       <c r="D15">
-        <v>7.336077079253148</v>
+        <v>4.851264132823011</v>
       </c>
       <c r="E15">
-        <v>12.26633742102483</v>
+        <v>7.787018057042284</v>
       </c>
       <c r="F15">
-        <v>40.14066891158032</v>
+        <v>34.04791972100819</v>
       </c>
       <c r="G15">
-        <v>47.87900585138793</v>
+        <v>46.45032005071985</v>
       </c>
       <c r="H15">
-        <v>18.63266549869181</v>
+        <v>13.09464419644798</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.860161078005179</v>
+        <v>5.539862861080859</v>
       </c>
       <c r="K15">
-        <v>18.68203769853159</v>
+        <v>26.67909279887238</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.20424086293281</v>
+        <v>19.99716091728652</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.519194709336174</v>
+        <v>8.845660773814561</v>
       </c>
       <c r="D16">
-        <v>7.325198061561511</v>
+        <v>4.76666581554675</v>
       </c>
       <c r="E16">
-        <v>12.27300324685016</v>
+        <v>7.722704727735081</v>
       </c>
       <c r="F16">
-        <v>40.119953514982</v>
+        <v>33.35656998607256</v>
       </c>
       <c r="G16">
-        <v>47.78648502004256</v>
+        <v>45.28792289371151</v>
       </c>
       <c r="H16">
-        <v>18.65695994126361</v>
+        <v>12.95864563448655</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.876617156532779</v>
+        <v>5.566197887443497</v>
       </c>
       <c r="K16">
-        <v>18.38360861563314</v>
+        <v>25.78438050034307</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.07624366999429</v>
+        <v>19.32547709347946</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.44791789544412</v>
+        <v>8.645610146850737</v>
       </c>
       <c r="D17">
-        <v>7.318633535290505</v>
+        <v>4.714483383787227</v>
       </c>
       <c r="E17">
-        <v>12.27753753555056</v>
+        <v>7.684388668466546</v>
       </c>
       <c r="F17">
-        <v>40.11059700359855</v>
+        <v>32.94195900692208</v>
       </c>
       <c r="G17">
-        <v>47.73466568985421</v>
+        <v>44.58694795917187</v>
       </c>
       <c r="H17">
-        <v>18.67310337436665</v>
+        <v>12.88042955748324</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.887018989644391</v>
+        <v>5.583203881160262</v>
       </c>
       <c r="K17">
-        <v>18.19885718595976</v>
+        <v>25.22398971709117</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.99815274637699</v>
+        <v>18.9048801089134</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.406637254967663</v>
+        <v>8.529160011622229</v>
       </c>
       <c r="D18">
-        <v>7.314898516552002</v>
+        <v>4.684367447954936</v>
       </c>
       <c r="E18">
-        <v>12.28030916737591</v>
+        <v>7.66276151576394</v>
       </c>
       <c r="F18">
-        <v>40.10644558843149</v>
+        <v>32.70693485648594</v>
       </c>
       <c r="G18">
-        <v>47.70667735494031</v>
+        <v>44.18818059286666</v>
       </c>
       <c r="H18">
-        <v>18.68284283232789</v>
+        <v>12.83730026206501</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.893114588012804</v>
+        <v>5.59328853314997</v>
       </c>
       <c r="K18">
-        <v>18.09201539018794</v>
+        <v>24.89737384707166</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.95340791530388</v>
+        <v>18.65977772683339</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.392613041322395</v>
+        <v>8.489491475954258</v>
       </c>
       <c r="D19">
-        <v>7.313640946505758</v>
+        <v>4.674153472061672</v>
       </c>
       <c r="E19">
-        <v>12.28127570523068</v>
+        <v>7.655508920327289</v>
       </c>
       <c r="F19">
-        <v>40.10525110968101</v>
+        <v>32.62794812558164</v>
       </c>
       <c r="G19">
-        <v>47.69751311490707</v>
+        <v>44.05392026303627</v>
       </c>
       <c r="H19">
-        <v>18.68621832060062</v>
+        <v>12.8230111852994</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.895197823456394</v>
+        <v>5.596754269538725</v>
       </c>
       <c r="K19">
-        <v>18.05574507463373</v>
+        <v>24.78604408944851</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.93828864102075</v>
+        <v>18.57623869736393</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.455535189454966</v>
+        <v>8.667048774388403</v>
       </c>
       <c r="D20">
-        <v>7.319328137251882</v>
+        <v>4.720048910507868</v>
       </c>
       <c r="E20">
-        <v>12.27703791965266</v>
+        <v>7.688424763494305</v>
       </c>
       <c r="F20">
-        <v>40.11146566049008</v>
+        <v>32.98573711650599</v>
       </c>
       <c r="G20">
-        <v>47.73999394407016</v>
+        <v>44.66111029726444</v>
       </c>
       <c r="H20">
-        <v>18.67133784138975</v>
+        <v>12.88856214634074</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.885900030503175</v>
+        <v>5.581361977000599</v>
       </c>
       <c r="K20">
-        <v>18.21858494828372</v>
+        <v>25.28408729727</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.00644824274029</v>
+        <v>18.9499820832051</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.663444900638521</v>
+        <v>9.247239794219315</v>
       </c>
       <c r="D21">
-        <v>7.33891922254037</v>
+        <v>4.873016388896137</v>
       </c>
       <c r="E21">
-        <v>12.26475394394398</v>
+        <v>7.803980292707184</v>
       </c>
       <c r="F21">
-        <v>40.14705448404493</v>
+        <v>34.22939353250511</v>
       </c>
       <c r="G21">
-        <v>47.90441806585511</v>
+        <v>46.7542143081314</v>
       </c>
       <c r="H21">
-        <v>18.62677746909484</v>
+        <v>13.13141616376874</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.856007155619126</v>
+        <v>5.533334444964011</v>
       </c>
       <c r="K21">
-        <v>18.75853851855523</v>
+        <v>26.90658321565088</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.23741030419906</v>
+        <v>20.16797608729137</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.79648617315174</v>
+        <v>9.614662833920772</v>
       </c>
       <c r="D22">
-        <v>7.352074648579931</v>
+        <v>4.972040408032971</v>
       </c>
       <c r="E22">
-        <v>12.25818082157768</v>
+        <v>7.883319184493054</v>
       </c>
       <c r="F22">
-        <v>40.18129647553235</v>
+        <v>35.0739705528495</v>
       </c>
       <c r="G22">
-        <v>48.02801004179174</v>
+        <v>48.1625154859013</v>
       </c>
       <c r="H22">
-        <v>18.60172755223188</v>
+        <v>13.30792693439</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.837472713587669</v>
+        <v>5.504850970295749</v>
       </c>
       <c r="K22">
-        <v>19.1055036612883</v>
+        <v>27.93011608573718</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.38961367209898</v>
+        <v>20.93667483028753</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.725753391857602</v>
+        <v>9.419609083485648</v>
       </c>
       <c r="D23">
-        <v>7.345021730542414</v>
+        <v>4.919277357690397</v>
       </c>
       <c r="E23">
-        <v>12.2615559759813</v>
+        <v>7.840617297541644</v>
       </c>
       <c r="F23">
-        <v>40.16201502493491</v>
+        <v>34.62023682407372</v>
       </c>
       <c r="G23">
-        <v>47.96057392503233</v>
+        <v>47.40712039583716</v>
       </c>
       <c r="H23">
-        <v>18.61472315875545</v>
+        <v>13.21203055191443</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.847273263531887</v>
+        <v>5.519776639116002</v>
       </c>
       <c r="K23">
-        <v>18.92090006124032</v>
+        <v>27.38713987589088</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.30827781777246</v>
+        <v>20.52885332564973</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.452092349981953</v>
+        <v>8.657360857273046</v>
       </c>
       <c r="D24">
-        <v>7.319013986070948</v>
+        <v>4.717533095247243</v>
       </c>
       <c r="E24">
-        <v>12.27726328262959</v>
+        <v>7.686598796744083</v>
       </c>
       <c r="F24">
-        <v>40.11106911666239</v>
+        <v>32.96593463669925</v>
       </c>
       <c r="G24">
-        <v>47.73757942287208</v>
+        <v>44.62756833001404</v>
       </c>
       <c r="H24">
-        <v>18.67213461131392</v>
+        <v>12.88487969105961</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.88640555230938</v>
+        <v>5.582193745693124</v>
       </c>
       <c r="K24">
-        <v>18.20966796703437</v>
+        <v>25.25693102482697</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.00269737650932</v>
+        <v>18.92960175676725</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.146276889245844</v>
+        <v>7.781873416307751</v>
       </c>
       <c r="D25">
-        <v>7.292523475461615</v>
+        <v>4.496084457072132</v>
       </c>
       <c r="E25">
-        <v>12.30046263145614</v>
+        <v>7.536112803618685</v>
       </c>
       <c r="F25">
-        <v>40.10311145436739</v>
+        <v>31.31301136529301</v>
       </c>
       <c r="G25">
-        <v>47.56647854406846</v>
+        <v>41.79822926276404</v>
       </c>
       <c r="H25">
-        <v>18.75140770568251</v>
+        <v>12.60234504694677</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.932927436450914</v>
+        <v>5.661024959738199</v>
       </c>
       <c r="K25">
-        <v>17.42095556278504</v>
+        <v>22.79432770470556</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.67977190516985</v>
+        <v>17.1268998982465</v>
       </c>
       <c r="N25">
         <v>0</v>
